--- a/01_Input/00_CO Validation/Lebanon - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Lebanon - Energy Projects.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="84" documentId="11_E58CCD86D1F8A99D98ABBAEECE8F2A93CC89B156" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9388A77-A4BA-40F5-AAC6-DA3876DA3287}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="11_E58CCD86D1F8A99D98ABBAEECE8F2A93CC89B156" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95C70F10-C140-4286-A81B-346D6ECCE5F7}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="Projects" sheetId="1" r:id="rId2"/>
-    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId3"/>
+    <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
+    <sheet name="Projects (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Projects" sheetId="1" r:id="rId3"/>
+    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="78">
   <si>
     <t>Project ID</t>
   </si>
@@ -68,9 +72,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>Tag</t>
   </si>
   <si>
@@ -114,12 +115,6 @@
   </si>
   <si>
     <t>Energy Efficiency</t>
-  </si>
-  <si>
-    <t>http://open.undp.org/projects/00120030</t>
-  </si>
-  <si>
-    <t>Other Energy Services</t>
   </si>
   <si>
     <t>Direct additional employment (person months)</t>
@@ -135,6 +130,9 @@
 https://www.thegef.org/projects-operations/projects/10358</t>
   </si>
   <si>
+    <t>Transport Services</t>
+  </si>
+  <si>
     <t>Outcome Indicator 1: # direct project beneficiaries disaggregated by gender (individual people</t>
   </si>
   <si>
@@ -145,6 +143,15 @@
   </si>
   <si>
     <t>VF</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>http://open.undp.org/projects/00120030</t>
+  </si>
+  <si>
+    <t>Other Energy Services</t>
   </si>
   <si>
     <t xml:space="preserve">Project 120029 seems like it doesn't have enough beneficiaries specified. The budget is over $15M, but only 230 people were listed for a training. 
@@ -471,6 +478,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,10 +494,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -791,11 +798,274 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF9AFDE-6F63-4D88-A387-95E5177A221F}">
+  <dimension ref="A1:S8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="50.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="49.85546875" customWidth="1"/>
+    <col min="6" max="6" width="57.85546875" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="26.25" customHeight="1">
+      <c r="A2" s="14">
+        <v>120029</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="14">
+        <v>15436128</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0</v>
+      </c>
+      <c r="H2" s="16">
+        <v>230</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14">
+        <f>1/150</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="26.25" customHeight="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0</v>
+      </c>
+      <c r="H3" s="16">
+        <v>582</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14">
+        <f>1/150</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="45.75">
+      <c r="A4" s="14">
+        <v>6468</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="19">
+        <v>3552968</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16">
+        <v>1417000</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="C8" s="10"/>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R4" xr:uid="{4E0D6537-D318-45E9-8899-DB3F3ED156CB}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q4" xr:uid="{66639771-110E-4BDF-9FEF-A873AB088AD6}">
+      <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P4" xr:uid="{2DFDAAFB-4C47-4139-A10D-E7E1FE9B65D1}">
+      <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O4" xr:uid="{0A6BBB00-B118-44F2-8734-611C266010E4}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N4" xr:uid="{98DED1D3-C866-440D-B760-AE1AFFD2DF8C}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{AA2F52B4-843B-4690-B336-1A34D99CE12C}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{2EAC40B1-E0AA-4E7E-94CB-B0D1B4D7F1AF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{982623D0-F463-4808-98D8-E0AA03A6CA0F}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>E5:E8 E2:E3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA55A8F-5674-4E64-8962-62E791AD1E13}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -847,29 +1117,29 @@
       <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="P1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="26.25" customHeight="1">
@@ -877,19 +1147,19 @@
         <v>120029</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="D2" s="14">
         <v>15436128</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="G2" s="16">
         <v>0</v>
@@ -899,19 +1169,19 @@
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="14"/>
       <c r="L2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="28" t="s">
+      <c r="P2" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
@@ -926,19 +1196,19 @@
         <v>120029</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D3" s="14">
         <v>15436128</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G3" s="16">
         <v>0</v>
@@ -947,22 +1217,22 @@
         <v>582</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="22"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="28" t="s">
+      <c r="P3" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
@@ -977,19 +1247,19 @@
         <v>6468</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" s="19">
         <v>3552968</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" s="16">
         <v>0</v>
@@ -998,22 +1268,22 @@
         <v>1417000</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="26"/>
+        <v>35</v>
+      </c>
+      <c r="M4" s="22"/>
       <c r="N4" s="14"/>
-      <c r="O4" s="28" t="s">
+      <c r="O4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
@@ -1069,7 +1339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -1126,7 +1396,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="26.25" customHeight="1">
@@ -1134,19 +1404,19 @@
         <v>120029</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D2">
         <v>15436128</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1156,7 +1426,7 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="26.25" customHeight="1">
@@ -1164,19 +1434,19 @@
         <v>120029</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>15436128</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -1185,10 +1455,10 @@
         <v>6989</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="45.75">
@@ -1196,19 +1466,19 @@
         <v>6468</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>3552968</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1217,28 +1487,28 @@
         <v>1417000</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="213">
       <c r="B6" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="C7" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="C8" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1265,7 +1535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -1278,160 +1548,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="21" t="s">
-        <v>44</v>
+      <c r="A2" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="21"/>
+      <c r="A3" s="25"/>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="25"/>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="22" t="s">
-        <v>51</v>
+      <c r="A5" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="26"/>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="26"/>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="26"/>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="26"/>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="23" t="s">
-        <v>61</v>
+      <c r="A10" s="27" t="s">
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="23"/>
+      <c r="A11" s="27"/>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="24" t="s">
-        <v>66</v>
+      <c r="A12" s="28" t="s">
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="24"/>
+      <c r="A13" s="28"/>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="24"/>
+      <c r="A14" s="28"/>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1446,26 +1716,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -1714,8 +1964,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB9A6AAA-5019-4869-8830-05E12A6F7AC3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DBEE69D-F309-47CD-8EF5-CC5B1F84AA3D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1723,5 +1993,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DBEE69D-F309-47CD-8EF5-CC5B1F84AA3D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB9A6AAA-5019-4869-8830-05E12A6F7AC3}"/>
 </file>
--- a/01_Input/00_CO Validation/Lebanon - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Lebanon - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_E58CCD86D1F8A99D98ABBAEECE8F2A93CC89B156" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95C70F10-C140-4286-A81B-346D6ECCE5F7}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="11_E58CCD86D1F8A99D98ABBAEECE8F2A93CC89B156" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A98B135-5EAB-4A11-BA08-5FCDEAD7AEFC}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="87">
   <si>
     <t>Project ID</t>
   </si>
@@ -69,7 +69,7 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
+    <t>VF or Non-VF</t>
   </si>
   <si>
     <t>Tag</t>
@@ -90,7 +90,13 @@
     <t>Indirect Taxonomy</t>
   </si>
   <si>
-    <t>Energy Percent</t>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
   </si>
   <si>
     <t>Sustainable Energy Programme</t>
@@ -115,6 +121,9 @@
   </si>
   <si>
     <t>Energy Efficiency</t>
+  </si>
+  <si>
+    <t>Tier 1</t>
   </si>
   <si>
     <t>Direct additional employment (person months)</t>
@@ -130,7 +139,7 @@
 https://www.thegef.org/projects-operations/projects/10358</t>
   </si>
   <si>
-    <t>Transport Services</t>
+    <t>Transportation and E-mobility Services</t>
   </si>
   <si>
     <t>Outcome Indicator 1: # direct project beneficiaries disaggregated by gender (individual people</t>
@@ -145,7 +154,16 @@
     <t>VF</t>
   </si>
   <si>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Energy Percent</t>
   </si>
   <si>
     <t>http://open.undp.org/projects/00120030</t>
@@ -168,64 +186,76 @@
     <t>https://undp-my.sharepoint.com/:w:/g/personal/jihan_seoud_undp_org/EdCRFNHka59Ehd5I0eDb-_QBSD3Y7vTufR-j-ioHEuPD1w?e=ZAeRLg&amp;CID=9D014957-FFDB-4849-84F1-EC9AA031D3D1</t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
     <t>Electricity Access</t>
   </si>
   <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
   </si>
   <si>
     <t>Energy (MW added)</t>
   </si>
   <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
+    <t>Number of MW installed capacity</t>
   </si>
   <si>
     <t>Clean Cooking</t>
   </si>
   <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
   </si>
   <si>
     <t>Health Services</t>
   </si>
   <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -240,31 +270,28 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -277,12 +304,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,8 +349,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,44 +376,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -431,68 +441,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -799,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF9AFDE-6F63-4D88-A387-95E5177A221F}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -814,230 +875,313 @@
     <col min="6" max="6" width="57.85546875" customWidth="1"/>
     <col min="7" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:31">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="31" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="26.25" customHeight="1">
-      <c r="A2" s="14">
+      <c r="T1" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="45.75">
+      <c r="A2" s="12">
         <v>120029</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="14">
+      <c r="B2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="12">
         <v>15436128</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="16">
+      <c r="E2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="12">
         <v>0</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="12">
         <v>230</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="24" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14">
+      <c r="M2" s="25"/>
+      <c r="N2" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="17"/>
+      <c r="W2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12">
         <f>1/150</f>
         <v>6.6666666666666671E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="26.25" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="16" t="s">
+    <row r="3" spans="1:31" ht="45.75">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>582</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="25"/>
+      <c r="N3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="16">
-        <v>0</v>
-      </c>
-      <c r="H3" s="16">
-        <v>582</v>
-      </c>
-      <c r="I3" s="16" t="s">
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="17"/>
+      <c r="W3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14">
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12">
         <f>1/150</f>
         <v>6.6666666666666671E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="45.75">
-      <c r="A4" s="14">
+    <row r="4" spans="1:31" ht="45.75">
+      <c r="A4" s="12">
         <v>6468</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="19">
+      <c r="B4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="17">
         <v>3552968</v>
       </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="16">
+      <c r="E4" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="12">
         <v>0</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="12">
         <v>1417000</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="C8" s="10"/>
+      <c r="I4" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="25"/>
+      <c r="N4" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="17"/>
+      <c r="W4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="C8" s="8"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R4" xr:uid="{4E0D6537-D318-45E9-8899-DB3F3ED156CB}">
+  <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD4" xr:uid="{4E0D6537-D318-45E9-8899-DB3F3ED156CB}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q4" xr:uid="{66639771-110E-4BDF-9FEF-A873AB088AD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC4 Q2:Q4" xr:uid="{66639771-110E-4BDF-9FEF-A873AB088AD6}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P4" xr:uid="{2DFDAAFB-4C47-4139-A10D-E7E1FE9B65D1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB4 P2:P4" xr:uid="{2DFDAAFB-4C47-4139-A10D-E7E1FE9B65D1}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O4" xr:uid="{0A6BBB00-B118-44F2-8734-611C266010E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z4 AA3:AA4" xr:uid="{0A6BBB00-B118-44F2-8734-611C266010E4}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N4" xr:uid="{98DED1D3-C866-440D-B760-AE1AFFD2DF8C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y4 N2:N4" xr:uid="{98DED1D3-C866-440D-B760-AE1AFFD2DF8C}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{1504E1B0-25CD-4378-A6E5-13DF7FAD8C5D}">
+      <formula1>"Tier 1, Tier 2, Tier 3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O4" xr:uid="{166F7364-517F-455B-93B4-7C52772AF977}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4" xr:uid="{E6ACF445-1FB2-462E-B54F-F6BFB5F10A79}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{C813E077-04E4-4298-A2B7-95413E34C688}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T4" xr:uid="{03668084-3BFC-4CEC-860C-5E406E76E79C}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R4" xr:uid="{6C159968-EA5B-4CE1-BD22-1E3BBBC9C0BB}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S4" xr:uid="{9771CFBA-6D9D-4D18-809C-F84A814F4618}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1047,12 +1191,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{982623D0-F463-4808-98D8-E0AA03A6CA0F}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E8 E2:E3</xm:sqref>
+          <xm:sqref>E5:E8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FA32511C-C40E-4429-9F50-D086E2A59EB0}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1081,224 +1231,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="12" t="s">
+      <c r="L1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="14" t="s">
-        <v>18</v>
+      <c r="T1" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="26.25" customHeight="1">
-      <c r="A2" s="14">
+      <c r="A2" s="12">
         <v>120029</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="14">
+      <c r="B2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="12">
         <v>15436128</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="16">
+      <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="14">
         <v>0</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="14">
         <v>230</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="24" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14">
+      <c r="M2" s="20"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12">
         <f>1/150</f>
         <v>6.6666666666666671E-3</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="26.25" customHeight="1">
-      <c r="A3" s="14">
+      <c r="A3" s="12">
         <v>120029</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="14">
+      <c r="B3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="12">
         <v>15436128</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>582</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="20"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="16">
-        <v>0</v>
-      </c>
-      <c r="H3" s="16">
-        <v>582</v>
-      </c>
-      <c r="I3" s="16" t="s">
+      <c r="P3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12">
         <f>1/150</f>
         <v>6.6666666666666671E-3</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="45.75">
-      <c r="A4" s="14">
+      <c r="A4" s="12">
         <v>6468</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="19">
+      <c r="B4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="17">
         <v>3552968</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>1417000</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="16">
-        <v>0</v>
-      </c>
-      <c r="H4" s="16">
-        <v>1417000</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="C7" s="10"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="C8" s="10"/>
+      <c r="C8" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -1329,7 +1479,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E5C09F71-E26F-45B2-A453-D30F2773665B}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E8</xm:sqref>
         </x14:dataValidation>
@@ -1386,17 +1536,17 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>36</v>
+      <c r="L1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="26.25" customHeight="1">
@@ -1404,19 +1554,19 @@
         <v>120029</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>15436128</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1426,7 +1576,7 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="26.25" customHeight="1">
@@ -1434,19 +1584,19 @@
         <v>120029</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>15436128</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -1455,10 +1605,10 @@
         <v>6989</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="45.75">
@@ -1466,19 +1616,19 @@
         <v>6468</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D4">
         <v>3552968</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1486,29 +1636,29 @@
       <c r="H4" s="3">
         <v>1417000</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>33</v>
+      <c r="I4" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="213">
-      <c r="B6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>40</v>
+      <c r="B6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="C7" s="10" t="s">
-        <v>41</v>
+      <c r="C7" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="C8" s="10" t="s">
-        <v>42</v>
+      <c r="C8" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1525,7 +1675,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E8</xm:sqref>
         </x14:dataValidation>
@@ -1537,180 +1687,194 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="52.7109375" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="34" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="25"/>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="25"/>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="26"/>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="26"/>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="26"/>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="26"/>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="27"/>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="28"/>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="28"/>
-      <c r="B14" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" s="35" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="34" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5" t="s">
+      <c r="B16" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="34" t="s">
         <v>77</v>
       </c>
+      <c r="B17" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1965,15 +2129,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
@@ -1984,14 +2139,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DBEE69D-F309-47CD-8EF5-CC5B1F84AA3D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71C42F2C-D499-4DA1-B1C0-0B28657E6654}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB9A6AAA-5019-4869-8830-05E12A6F7AC3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB9A6AAA-5019-4869-8830-05E12A6F7AC3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71C42F2C-D499-4DA1-B1C0-0B28657E6654}"/>
 </file>